--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="192" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="338">
   <si>
     <t>编号</t>
   </si>
@@ -1520,6 +1520,46 @@
   </si>
   <si>
     <t>整体音量偏小，尤其数图音频资源播放音频比tts小好多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网速较慢，我在网速快的地方，大致3秒钟可以切换到下一章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网速较慢，我在网速快的地方，大致2秒钟可以切换到下一章。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请查看视频教程为何不起作用，这与我测试视频教程中按下键到最后一张时，其中会出现一些错误现象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件不存在时自动创建文件夹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明之前已经有问题了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件问题待查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5312,10 +5352,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8996,9 +9036,13 @@
       <c r="L79" s="55"/>
       <c r="M79" s="82"/>
       <c r="N79" s="82"/>
-      <c r="O79" s="82"/>
+      <c r="O79" s="82" t="s">
+        <v>337</v>
+      </c>
       <c r="P79" s="85"/>
-      <c r="Q79" s="82"/>
+      <c r="Q79" s="82" t="s">
+        <v>335</v>
+      </c>
       <c r="R79" s="45"/>
     </row>
     <row r="80" spans="1:18" s="15" customFormat="1" ht="40.5" hidden="1">
@@ -9213,7 +9257,7 @@
       <c r="J84" s="47"/>
       <c r="K84" s="47"/>
       <c r="L84" s="47"/>
-      <c r="M84" s="74"/>
+      <c r="M84" s="82"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
       <c r="P84" s="74"/>
@@ -9250,7 +9294,7 @@
       <c r="J85" s="74"/>
       <c r="K85" s="74"/>
       <c r="L85" s="74"/>
-      <c r="M85" s="74"/>
+      <c r="M85" s="82"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
       <c r="P85" s="74"/>
@@ -9289,7 +9333,7 @@
       <c r="J86" s="47"/>
       <c r="K86" s="47"/>
       <c r="L86" s="47"/>
-      <c r="M86" s="74"/>
+      <c r="M86" s="82"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
       <c r="P86" s="74"/>
@@ -9328,7 +9372,7 @@
       <c r="J87" s="74"/>
       <c r="K87" s="74"/>
       <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
+      <c r="M87" s="82"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
       <c r="P87" s="74"/>
@@ -9367,7 +9411,7 @@
       <c r="J88" s="74"/>
       <c r="K88" s="74"/>
       <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
+      <c r="M88" s="82"/>
       <c r="N88" s="74"/>
       <c r="O88" s="74"/>
       <c r="P88" s="74"/>
@@ -9406,7 +9450,7 @@
       <c r="J89" s="74"/>
       <c r="K89" s="74"/>
       <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
+      <c r="M89" s="82"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
       <c r="P89" s="74"/>
@@ -9447,7 +9491,7 @@
       </c>
       <c r="K90" s="74"/>
       <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
+      <c r="M90" s="82"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
       <c r="P90" s="74"/>
@@ -9486,7 +9530,7 @@
       <c r="J91" s="74"/>
       <c r="K91" s="74"/>
       <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
+      <c r="M91" s="82"/>
       <c r="N91" s="74"/>
       <c r="O91" s="74"/>
       <c r="P91" s="74"/>
@@ -9525,7 +9569,7 @@
       <c r="J92" s="74"/>
       <c r="K92" s="74"/>
       <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
+      <c r="M92" s="82"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
       <c r="P92" s="74"/>
@@ -9564,7 +9608,7 @@
       <c r="J93" s="74"/>
       <c r="K93" s="74"/>
       <c r="L93" s="74"/>
-      <c r="M93" s="74"/>
+      <c r="M93" s="82"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
       <c r="P93" s="74"/>
@@ -9603,13 +9647,21 @@
       <c r="J94" s="74"/>
       <c r="K94" s="74"/>
       <c r="L94" s="74"/>
-      <c r="M94" s="74"/>
+      <c r="M94" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N94" s="74"/>
-      <c r="O94" s="74"/>
-      <c r="P94" s="74"/>
-      <c r="Q94" s="74"/>
-    </row>
-    <row r="95" spans="1:18" s="73" customFormat="1" ht="27">
+      <c r="O94" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="P94" s="86">
+        <v>42844</v>
+      </c>
+      <c r="Q94" s="74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="73" customFormat="1" ht="40.5">
       <c r="A95" s="55">
         <v>93</v>
       </c>
@@ -9640,13 +9692,15 @@
       <c r="J95" s="74"/>
       <c r="K95" s="74"/>
       <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
+      <c r="M95" s="82"/>
       <c r="N95" s="74"/>
-      <c r="O95" s="74"/>
+      <c r="O95" s="87" t="s">
+        <v>330</v>
+      </c>
       <c r="P95" s="74"/>
       <c r="Q95" s="74"/>
     </row>
-    <row r="96" spans="1:18" s="73" customFormat="1" ht="27">
+    <row r="96" spans="1:18" s="73" customFormat="1" ht="40.5">
       <c r="A96" s="55">
         <v>94</v>
       </c>
@@ -9677,9 +9731,11 @@
       <c r="J96" s="74"/>
       <c r="K96" s="74"/>
       <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
+      <c r="M96" s="82"/>
       <c r="N96" s="74"/>
-      <c r="O96" s="74"/>
+      <c r="O96" s="87" t="s">
+        <v>330</v>
+      </c>
       <c r="P96" s="74"/>
       <c r="Q96" s="74"/>
     </row>
@@ -9714,13 +9770,15 @@
       <c r="J97" s="74"/>
       <c r="K97" s="74"/>
       <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
+      <c r="M97" s="82"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
       <c r="P97" s="74"/>
-      <c r="Q97" s="74"/>
-    </row>
-    <row r="98" spans="1:17" s="73" customFormat="1" ht="27">
+      <c r="Q97" s="74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="73" customFormat="1" ht="40.5">
       <c r="A98" s="55">
         <v>96</v>
       </c>
@@ -9751,9 +9809,11 @@
       <c r="J98" s="74"/>
       <c r="K98" s="74"/>
       <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
+      <c r="M98" s="82"/>
       <c r="N98" s="74"/>
-      <c r="O98" s="74"/>
+      <c r="O98" s="87" t="s">
+        <v>332</v>
+      </c>
       <c r="P98" s="74"/>
       <c r="Q98" s="74"/>
     </row>
@@ -9788,11 +9848,13 @@
       <c r="J99" s="74"/>
       <c r="K99" s="74"/>
       <c r="L99" s="74"/>
-      <c r="M99" s="74"/>
+      <c r="M99" s="82"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
       <c r="P99" s="74"/>
-      <c r="Q99" s="74"/>
+      <c r="Q99" s="74" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="100" spans="1:17" s="73" customFormat="1">
       <c r="A100" s="55">
@@ -9825,13 +9887,15 @@
       <c r="J100" s="74"/>
       <c r="K100" s="74"/>
       <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
+      <c r="M100" s="82"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
       <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-    </row>
-    <row r="101" spans="1:17" s="73" customFormat="1" ht="27">
+      <c r="Q100" s="74" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="73" customFormat="1" ht="54">
       <c r="A101" s="55">
         <v>99</v>
       </c>
@@ -9862,11 +9926,15 @@
       <c r="J101" s="74"/>
       <c r="K101" s="74"/>
       <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
+      <c r="M101" s="82"/>
       <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
+      <c r="O101" s="87" t="s">
+        <v>333</v>
+      </c>
       <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
+      <c r="Q101" s="74" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="102" spans="1:17" s="73" customFormat="1" ht="27">
       <c r="A102" s="55">
@@ -9899,9 +9967,11 @@
       <c r="J102" s="74"/>
       <c r="K102" s="74"/>
       <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
+      <c r="M102" s="82"/>
       <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
+      <c r="O102" s="87" t="s">
+        <v>336</v>
+      </c>
       <c r="P102" s="74"/>
       <c r="Q102" s="74"/>
     </row>
@@ -9938,9 +10008,13 @@
       <c r="L103" s="55"/>
       <c r="M103" s="82"/>
       <c r="N103" s="55"/>
-      <c r="O103" s="55"/>
+      <c r="O103" s="55" t="s">
+        <v>334</v>
+      </c>
       <c r="P103" s="83"/>
-      <c r="Q103" s="55"/>
+      <c r="Q103" s="55" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="104" spans="1:17" s="73" customFormat="1">
       <c r="A104" s="55">
@@ -9973,11 +10047,13 @@
       <c r="J104" s="74"/>
       <c r="K104" s="74"/>
       <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
+      <c r="M104" s="82"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
       <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
+      <c r="Q104" s="74" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="106" spans="1:17">
       <c r="G106" s="95"/>
@@ -10003,7 +10079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M83 M103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M36 M52:M104">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="192" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="338">
   <si>
     <t>编号</t>
   </si>
@@ -5352,10 +5352,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O79" sqref="O79"/>
+      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5796,7 +5796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="36" customFormat="1" ht="27">
+    <row r="10" spans="1:17" s="36" customFormat="1" ht="27" hidden="1">
       <c r="A10" s="55">
         <v>8</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="36" customFormat="1" ht="40.5">
+    <row r="12" spans="1:17" s="36" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="55">
         <v>10</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="40.5">
+    <row r="16" spans="1:17" ht="40.5" hidden="1">
       <c r="A16" s="55">
         <v>14</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="27">
+    <row r="18" spans="1:17" ht="27" hidden="1">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="81">
+    <row r="22" spans="1:17" ht="81" hidden="1">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" ht="81">
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="81" hidden="1">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" ht="40.5">
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="40.5" hidden="1">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="40" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A40" s="55">
         <v>38</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="46" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A46" s="55">
         <v>44</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="37" customFormat="1">
+    <row r="47" spans="1:17" s="37" customFormat="1" hidden="1">
       <c r="A47" s="55">
         <v>45</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="37" customFormat="1" ht="27">
+    <row r="60" spans="1:17" s="37" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="55">
         <v>58</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="38" customFormat="1" ht="27">
+    <row r="69" spans="1:18" s="38" customFormat="1" ht="27" hidden="1">
       <c r="A69" s="55">
         <v>67</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79" s="55">
         <v>77</v>
       </c>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="R82" s="94"/>
     </row>
-    <row r="83" spans="1:18" ht="54">
+    <row r="83" spans="1:18" ht="54" hidden="1">
       <c r="A83" s="55">
         <v>81</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="85" spans="1:18" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A85" s="55">
         <v>83</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="90" spans="1:18" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A90" s="55">
         <v>88</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="73" customFormat="1" ht="27">
+    <row r="94" spans="1:18" s="73" customFormat="1" ht="27" hidden="1">
       <c r="A94" s="55">
         <v>92</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="95" spans="1:18" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A95" s="55">
         <v>93</v>
       </c>
@@ -9700,7 +9700,7 @@
       <c r="P95" s="74"/>
       <c r="Q95" s="74"/>
     </row>
-    <row r="96" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="96" spans="1:18" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A96" s="55">
         <v>94</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="73" customFormat="1" ht="40.5">
+    <row r="98" spans="1:17" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="55">
         <v>96</v>
       </c>
@@ -9817,7 +9817,7 @@
       <c r="P98" s="74"/>
       <c r="Q98" s="74"/>
     </row>
-    <row r="99" spans="1:17" s="73" customFormat="1">
+    <row r="99" spans="1:17" s="73" customFormat="1" hidden="1">
       <c r="A99" s="55">
         <v>97</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="73" customFormat="1">
+    <row r="100" spans="1:17" s="73" customFormat="1" hidden="1">
       <c r="A100" s="55">
         <v>98</v>
       </c>
@@ -9926,17 +9926,21 @@
       <c r="J101" s="74"/>
       <c r="K101" s="74"/>
       <c r="L101" s="74"/>
-      <c r="M101" s="82"/>
+      <c r="M101" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N101" s="74"/>
       <c r="O101" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="P101" s="74"/>
+      <c r="P101" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q101" s="74" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="73" customFormat="1" ht="27">
+    <row r="102" spans="1:17" s="73" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="55">
         <v>100</v>
       </c>
@@ -9975,7 +9979,7 @@
       <c r="P102" s="74"/>
       <c r="Q102" s="74"/>
     </row>
-    <row r="103" spans="1:17" s="15" customFormat="1" ht="27">
+    <row r="103" spans="1:17" s="15" customFormat="1" ht="27" hidden="1">
       <c r="A103" s="55">
         <v>101</v>
       </c>
@@ -10016,7 +10020,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="73" customFormat="1">
+    <row r="104" spans="1:17" s="73" customFormat="1" hidden="1">
       <c r="A104" s="55">
         <v>102</v>
       </c>
@@ -10063,12 +10067,12 @@
   <autoFilter ref="A2:Q104">
     <filterColumn colId="9">
       <filters blank="1">
-        <filter val="陈"/>
-        <filter val="待测"/>
-        <filter val="待定"/>
-        <filter val="待深测"/>
-        <filter val="待讨论"/>
         <filter val="返回"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="W"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="340">
   <si>
     <t>编号</t>
   </si>
@@ -1560,6 +1560,13 @@
   </si>
   <si>
     <t>固件问题待查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>播放的是在线视频流，所以播放是否迅速、流畅主要取决于网速，我在家里非常流畅，没有这些问题。你换个网速快的地方试试？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5352,10 +5359,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6522,16 +6529,12 @@
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="82" t="s">
-        <v>88</v>
-      </c>
+      <c r="M25" s="82"/>
       <c r="N25" s="82"/>
       <c r="O25" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="P25" s="83">
-        <v>42841</v>
-      </c>
+      <c r="P25" s="83"/>
       <c r="Q25" s="82" t="s">
         <v>104</v>
       </c>
@@ -8547,10 +8550,14 @@
       <c r="J68" s="47"/>
       <c r="K68" s="47"/>
       <c r="L68" s="47"/>
-      <c r="M68" s="82"/>
+      <c r="M68" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
-      <c r="P68" s="74"/>
+      <c r="P68" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q68" s="74" t="s">
         <v>104</v>
       </c>
@@ -9739,7 +9746,7 @@
       <c r="P96" s="74"/>
       <c r="Q96" s="74"/>
     </row>
-    <row r="97" spans="1:17" s="73" customFormat="1" ht="40.5">
+    <row r="97" spans="1:17" s="73" customFormat="1" ht="67.5">
       <c r="A97" s="55">
         <v>95</v>
       </c>
@@ -9770,10 +9777,16 @@
       <c r="J97" s="74"/>
       <c r="K97" s="74"/>
       <c r="L97" s="74"/>
-      <c r="M97" s="82"/>
+      <c r="M97" s="82" t="s">
+        <v>338</v>
+      </c>
       <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
+      <c r="O97" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="P97" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q97" s="74" t="s">
         <v>331</v>
       </c>
@@ -10066,7 +10079,7 @@
   </sheetData>
   <autoFilter ref="A2:Q104">
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="340">
   <si>
     <t>编号</t>
   </si>
@@ -5359,10 +5359,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9340,10 +9340,14 @@
       <c r="J86" s="47"/>
       <c r="K86" s="47"/>
       <c r="L86" s="47"/>
-      <c r="M86" s="82"/>
+      <c r="M86" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
-      <c r="P86" s="74"/>
+      <c r="P86" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q86" s="74" t="s">
         <v>104</v>
       </c>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="342">
   <si>
     <t>编号</t>
   </si>
@@ -1567,6 +1567,14 @@
   </si>
   <si>
     <t>播放的是在线视频流，所以播放是否迅速、流畅主要取决于网速，我在家里非常流畅，没有这些问题。你换个网速快的地方试试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转书签是自动朗读的标记应该置为false.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5359,10 +5367,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P86" sqref="P86"/>
+      <selection pane="bottomRight" activeCell="M89" sqref="M89:Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8521,7 +8529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="38" customFormat="1">
+    <row r="68" spans="1:18" s="38" customFormat="1" hidden="1">
       <c r="A68" s="55">
         <v>66</v>
       </c>
@@ -9309,7 +9317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="40.5">
+    <row r="86" spans="1:18" ht="40.5" hidden="1">
       <c r="A86" s="55">
         <v>84</v>
       </c>
@@ -9344,7 +9352,9 @@
         <v>88</v>
       </c>
       <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
+      <c r="O86" s="74" t="s">
+        <v>341</v>
+      </c>
       <c r="P86" s="86">
         <v>42846</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="87" spans="1:18" s="73" customFormat="1" ht="40.5" hidden="1">
       <c r="A87" s="55">
         <v>85</v>
       </c>
@@ -9383,15 +9393,21 @@
       <c r="J87" s="74"/>
       <c r="K87" s="74"/>
       <c r="L87" s="74"/>
-      <c r="M87" s="82"/>
+      <c r="M87" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N87" s="74"/>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
+      <c r="O87" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="P87" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q87" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="73" customFormat="1" ht="54">
+    <row r="88" spans="1:18" s="73" customFormat="1" ht="54" hidden="1">
       <c r="A88" s="55">
         <v>86</v>
       </c>
@@ -9422,15 +9438,21 @@
       <c r="J88" s="74"/>
       <c r="K88" s="74"/>
       <c r="L88" s="74"/>
-      <c r="M88" s="82"/>
+      <c r="M88" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
-      <c r="P88" s="74"/>
+      <c r="O88" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="P88" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q88" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="73" customFormat="1" ht="27">
+    <row r="89" spans="1:18" s="73" customFormat="1" ht="27" hidden="1">
       <c r="A89" s="55">
         <v>87</v>
       </c>
@@ -9461,10 +9483,16 @@
       <c r="J89" s="74"/>
       <c r="K89" s="74"/>
       <c r="L89" s="74"/>
-      <c r="M89" s="82"/>
+      <c r="M89" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-      <c r="P89" s="74"/>
+      <c r="O89" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="P89" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q89" s="74" t="s">
         <v>104</v>
       </c>
@@ -9750,7 +9778,7 @@
       <c r="P96" s="74"/>
       <c r="Q96" s="74"/>
     </row>
-    <row r="97" spans="1:17" s="73" customFormat="1" ht="67.5">
+    <row r="97" spans="1:17" s="73" customFormat="1" ht="67.5" hidden="1">
       <c r="A97" s="55">
         <v>95</v>
       </c>
@@ -9912,7 +9940,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="73" customFormat="1" ht="54">
+    <row r="101" spans="1:17" s="73" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="55">
         <v>99</v>
       </c>
@@ -10086,6 +10114,9 @@
       <filters>
         <filter val="返回"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="16">
       <filters>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="343">
   <si>
     <t>编号</t>
   </si>
@@ -1575,6 +1575,10 @@
   </si>
   <si>
     <t>跳转书签是自动朗读的标记应该置为false.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方不能自动全文朗读，因为提示信息和全文朗读的TTS有冲突。按OK或者5键不能恢复播放的问题修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5370,7 +5374,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M89" sqref="M89:Q89"/>
+      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9538,7 +9542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="73" customFormat="1" ht="40.5">
+    <row r="91" spans="1:18" s="73" customFormat="1" ht="67.5" hidden="1">
       <c r="A91" s="55">
         <v>89</v>
       </c>
@@ -9569,10 +9573,16 @@
       <c r="J91" s="74"/>
       <c r="K91" s="74"/>
       <c r="L91" s="74"/>
-      <c r="M91" s="82"/>
+      <c r="M91" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N91" s="74"/>
-      <c r="O91" s="74"/>
-      <c r="P91" s="74"/>
+      <c r="O91" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="P91" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q91" s="74" t="s">
         <v>104</v>
       </c>
@@ -10111,7 +10121,7 @@
   </sheetData>
   <autoFilter ref="A2:Q104">
     <filterColumn colId="9">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-数图_170418.xlsx
+++ b/测试单-数图_170418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="343">
   <si>
     <t>编号</t>
   </si>
@@ -5371,10 +5371,10 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
+      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9618,10 +9618,14 @@
       <c r="J92" s="74"/>
       <c r="K92" s="74"/>
       <c r="L92" s="74"/>
-      <c r="M92" s="82"/>
+      <c r="M92" s="82" t="s">
+        <v>88</v>
+      </c>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
-      <c r="P92" s="74"/>
+      <c r="P92" s="86">
+        <v>42846</v>
+      </c>
       <c r="Q92" s="74" t="s">
         <v>104</v>
       </c>
@@ -10121,7 +10125,7 @@
   </sheetData>
   <autoFilter ref="A2:Q104">
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
